--- a/20170712-mnrecovery/builds/development/data/_raw/income_change_index.xlsx
+++ b/20170712-mnrecovery/builds/development/data/_raw/income_change_index.xlsx
@@ -1492,8 +1492,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="779">
+  <cellStyleXfs count="781">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2361,7 +2363,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="779">
+  <cellStyles count="781">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2751,6 +2753,7 @@
     <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3140,6 +3143,7 @@
     <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4725,7 +4729,7 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4842,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="5">
-        <f>J2+K2+N2+O2+P2</f>
+        <f t="shared" ref="Q2:Q33" si="0">J2+K2+N2+O2+P2</f>
         <v>5</v>
       </c>
       <c r="R2" s="58" t="s">
@@ -4905,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5">
-        <f>J3+K3+N3+O3+P3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="R3" s="58" t="s">
@@ -4968,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="5">
-        <f>J4+K4+N4+O4+P4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="R4" s="58" t="s">
@@ -5031,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="5">
-        <f>J5+K5+N5+O5+P5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="R5" s="58" t="s">
@@ -5076,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="58">
         <v>1</v>
@@ -5094,8 +5098,8 @@
         <v>1</v>
       </c>
       <c r="Q6" s="5">
-        <f>J6+K6+N6+O6+P6</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>400</v>
@@ -5157,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="5">
-        <f>J7+K7+N7+O7+P7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R7" s="58" t="s">
@@ -5220,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5">
-        <f>J8+K8+N8+O8+P8</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R8" s="58" t="s">
@@ -5283,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="5">
-        <f>J9+K9+N9+O9+P9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R9" s="58" t="s">
@@ -5328,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="58">
         <v>1</v>
@@ -5346,8 +5350,8 @@
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f>J10+K10+N10+O10+P10</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>400</v>
@@ -5409,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="5">
-        <f>J11+K11+N11+O11+P11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R11" s="58" t="s">
@@ -5472,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="5">
-        <f>J12+K12+N12+O12+P12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R12" s="58" t="s">
@@ -5535,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f>J13+K13+N13+O13+P13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R13" s="58" t="s">
@@ -5598,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="5">
-        <f>J14+K14+N14+O14+P14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R14" s="58" t="s">
@@ -5643,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="58">
         <v>1</v>
@@ -5661,8 +5665,8 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5">
-        <f>J15+K15+N15+O15+P15</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>400</v>
@@ -5724,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="5">
-        <f>J16+K16+N16+O16+P16</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R16" s="58" t="s">
@@ -5787,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="5">
-        <f>J17+K17+N17+O17+P17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R17" s="58" t="s">
@@ -5850,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="5">
-        <f>J18+K18+N18+O18+P18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R18" s="58" t="s">
@@ -5913,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="5">
-        <f>J19+K19+N19+O19+P19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R19" s="58" t="s">
@@ -5976,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="5">
-        <f>J20+K20+N20+O20+P20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R20" s="58" t="s">
@@ -6039,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="5">
-        <f>J21+K21+N21+O21+P21</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R21" s="58" t="s">
@@ -6102,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="5">
-        <f>J22+K22+N22+O22+P22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R22" s="58" t="s">
@@ -6165,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="5">
-        <f>J23+K23+N23+O23+P23</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R23" s="58" t="s">
@@ -6228,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="5">
-        <f>J24+K24+N24+O24+P24</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R24" s="58" t="s">
@@ -6291,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="5">
-        <f>J25+K25+N25+O25+P25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R25" s="58" t="s">
@@ -6354,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="5">
-        <f>J26+K26+N26+O26+P26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R26" s="58" t="s">
@@ -6417,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <f>J27+K27+N27+O27+P27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R27" s="58" t="s">
@@ -6480,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <f>J28+K28+N28+O28+P28</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R28" s="58" t="s">
@@ -6543,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <f>J29+K29+N29+O29+P29</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R29" s="58" t="s">
@@ -6606,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="5">
-        <f>J30+K30+N30+O30+P30</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R30" s="58" t="s">
@@ -6669,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="5">
-        <f>J31+K31+N31+O31+P31</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R31" s="58" t="s">
@@ -6732,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="5">
-        <f>J32+K32+N32+O32+P32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R32" s="58" t="s">
@@ -6795,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="5">
-        <f>J33+K33+N33+O33+P33</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R33" s="58" t="s">
@@ -6858,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="5">
-        <f>J34+K34+N34+O34+P34</f>
+        <f t="shared" ref="Q34:Q65" si="1">J34+K34+N34+O34+P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="58" t="s">
@@ -6921,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="5">
-        <f>J35+K35+N35+O35+P35</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R35" s="58" t="s">
@@ -6984,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="5">
-        <f>J36+K36+N36+O36+P36</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R36" s="58" t="s">
@@ -7047,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="5">
-        <f>J37+K37+N37+O37+P37</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R37" s="58" t="s">
@@ -7110,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="5">
-        <f>J38+K38+N38+O38+P38</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R38" s="58" t="s">
@@ -7173,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="5">
-        <f>J39+K39+N39+O39+P39</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R39" s="58" t="s">
@@ -7236,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="5">
-        <f>J40+K40+N40+O40+P40</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R40" s="58" t="s">
@@ -7299,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5">
-        <f>J41+K41+N41+O41+P41</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R41" s="58" t="s">
@@ -7362,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5">
-        <f>J42+K42+N42+O42+P42</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R42" s="58" t="s">
@@ -7425,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="5">
-        <f>J43+K43+N43+O43+P43</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R43" s="58" t="s">
@@ -7470,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="58">
         <v>1</v>
@@ -7488,8 +7492,8 @@
         <v>1</v>
       </c>
       <c r="Q44" s="5">
-        <f>J44+K44+N44+O44+P44</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R44" s="58" t="s">
         <v>400</v>
@@ -7530,10 +7534,10 @@
         <v>20.580479855138069</v>
       </c>
       <c r="J45" s="30">
+        <v>1</v>
+      </c>
+      <c r="K45" s="58">
         <v>0</v>
-      </c>
-      <c r="K45" s="58">
-        <v>1</v>
       </c>
       <c r="L45" s="58">
         <v>1</v>
@@ -7551,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="5">
-        <f>J45+K45+N45+O45+P45</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R45" s="58" t="s">
@@ -7595,7 +7599,7 @@
       <c r="J46" s="30">
         <v>1</v>
       </c>
-      <c r="K46" s="58">
+      <c r="K46" s="30">
         <v>0</v>
       </c>
       <c r="L46" s="58">
@@ -7614,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="5">
-        <f>J46+K46+N46+O46+P46</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R46" s="58" t="s">
@@ -7677,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="5">
-        <f>J47+K47+N47+O47+P47</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R47" s="58" t="s">
@@ -7740,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="5">
-        <f>J48+K48+N48+O48+P48</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R48" s="58" t="s">
@@ -7803,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="5">
-        <f>J49+K49+N49+O49+P49</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R49" s="58" t="s">
@@ -7866,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5">
-        <f>J50+K50+N50+O50+P50</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R50" s="58" t="s">
@@ -7929,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="5">
-        <f>J51+K51+N51+O51+P51</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R51" s="58" t="s">
@@ -7992,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="5">
-        <f>J52+K52+N52+O52+P52</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R52" s="58" t="s">
@@ -8055,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="5">
-        <f>J53+K53+N53+O53+P53</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R53" s="58" t="s">
@@ -8118,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="5">
-        <f>J54+K54+N54+O54+P54</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R54" s="58" t="s">
@@ -8181,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="5">
-        <f>J55+K55+N55+O55+P55</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R55" s="58" t="s">
@@ -8244,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="5">
-        <f>J56+K56+N56+O56+P56</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R56" s="58" t="s">
@@ -8307,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="5">
-        <f>J57+K57+N57+O57+P57</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R57" s="58" t="s">
@@ -8370,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5">
-        <f>J58+K58+N58+O58+P58</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R58" s="58" t="s">
@@ -8433,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5">
-        <f>J59+K59+N59+O59+P59</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R59" s="58" t="s">
@@ -8496,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="5">
-        <f>J60+K60+N60+O60+P60</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R60" s="58" t="s">
@@ -8559,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="5">
-        <f>J61+K61+N61+O61+P61</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R61" s="58" t="s">
@@ -8622,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="5">
-        <f>J62+K62+N62+O62+P62</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R62" s="58" t="s">
@@ -8685,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="5">
-        <f>J63+K63+N63+O63+P63</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R63" s="58" t="s">
@@ -8748,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="5">
-        <f>J64+K64+N64+O64+P64</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R64" s="58" t="s">
@@ -8811,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="5">
-        <f>J65+K65+N65+O65+P65</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R65" s="58" t="s">
@@ -8874,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5">
-        <f>J66+K66+N66+O66+P66</f>
+        <f t="shared" ref="Q66:Q89" si="2">J66+K66+N66+O66+P66</f>
         <v>2</v>
       </c>
       <c r="R66" s="58" t="s">
@@ -8937,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5">
-        <f>J67+K67+N67+O67+P67</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R67" s="58" t="s">
@@ -9000,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="5">
-        <f>J68+K68+N68+O68+P68</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R68" s="58" t="s">
@@ -9063,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="5">
-        <f>J69+K69+N69+O69+P69</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R69" s="58" t="s">
@@ -9126,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="5">
-        <f>J70+K70+N70+O70+P70</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R70" s="58" t="s">
@@ -9189,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5">
-        <f>J71+K71+N71+O71+P71</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R71" s="58" t="s">
@@ -9252,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="5">
-        <f>J72+K72+N72+O72+P72</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R72" s="58" t="s">
@@ -9315,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="5">
-        <f>J73+K73+N73+O73+P73</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R73" s="58" t="s">
@@ -9378,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="5">
-        <f>J74+K74+N74+O74+P74</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R74" s="58" t="s">
@@ -9423,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="58">
         <v>1</v>
@@ -9441,8 +9445,8 @@
         <v>0</v>
       </c>
       <c r="Q75" s="5">
-        <f>J75+K75+N75+O75+P75</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="R75" s="58" t="s">
         <v>400</v>
@@ -9504,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="5">
-        <f>J76+K76+N76+O76+P76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R76" s="58" t="s">
@@ -9567,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="5">
-        <f>J77+K77+N77+O77+P77</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R77" s="58" t="s">
@@ -9630,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="5">
-        <f>J78+K78+N78+O78+P78</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R78" s="58" t="s">
@@ -9693,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="5">
-        <f>J79+K79+N79+O79+P79</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R79" s="58" t="s">
@@ -9756,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="5">
-        <f>J80+K80+N80+O80+P80</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R80" s="58" t="s">
@@ -9801,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="58">
         <v>1</v>
@@ -9820,7 +9824,7 @@
       </c>
       <c r="Q81" s="5">
         <f>J81+K81+N81+O81+P81</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R81" s="58" t="s">
         <v>400</v>
@@ -9945,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="5">
-        <f>J83+K83+N83+O83+P83</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R83" s="58" t="s">
@@ -10008,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="5">
-        <f>J84+K84+N84+O84+P84</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R84" s="58" t="s">
@@ -10071,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="5">
-        <f>J85+K85+N85+O85+P85</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R85" s="58" t="s">
@@ -10134,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="5">
-        <f>J86+K86+N86+O86+P86</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R86" s="58" t="s">
@@ -10197,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="5">
-        <f>J87+K87+N87+O87+P87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R87" s="58" t="s">
@@ -10242,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="58">
         <v>0</v>
@@ -10260,8 +10264,8 @@
         <v>1</v>
       </c>
       <c r="Q88" s="5">
-        <f>J88+K88+N88+O88+P88</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="R88" s="58" t="s">
         <v>400</v>
@@ -10323,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="5">
-        <f>J89+K89+N89+O89+P89</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R89" s="58" t="s">

--- a/20170712-mnrecovery/builds/development/data/_raw/income_change_index.xlsx
+++ b/20170712-mnrecovery/builds/development/data/_raw/income_change_index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1860" windowWidth="24200" windowHeight="14620" tabRatio="500" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="2640" yWindow="1900" windowWidth="24200" windowHeight="14620" tabRatio="500" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="781">
+  <cellStyleXfs count="783">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2274,8 +2274,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2355,6 +2357,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2363,7 +2366,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="781">
+  <cellStyles count="783">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2754,6 +2757,7 @@
     <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3144,6 +3148,7 @@
     <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4729,7 +4734,7 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4846,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" ref="Q2:Q33" si="0">J2+K2+N2+O2+P2</f>
+        <f>J2+K2+N2+O2+P2</f>
         <v>5</v>
       </c>
       <c r="R2" s="58" t="s">
@@ -4860,16 +4865,16 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="63">
         <v>-3</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="63">
         <v>10.646889803525667</v>
       </c>
       <c r="E3" s="5">
@@ -4909,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="0"/>
+        <f>J3+K3+N3+O3+P3</f>
         <v>5</v>
       </c>
       <c r="R3" s="58" t="s">
@@ -4972,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="0"/>
+        <f>J4+K4+N4+O4+P4</f>
         <v>5</v>
       </c>
       <c r="R4" s="58" t="s">
@@ -4986,16 +4991,16 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="63">
         <v>-2.5000000000000022</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="63">
         <v>10.053789955385303</v>
       </c>
       <c r="E5" s="5">
@@ -5035,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="0"/>
+        <f>J5+K5+N5+O5+P5</f>
         <v>5</v>
       </c>
       <c r="R5" s="58" t="s">
@@ -5098,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="0"/>
+        <f>J6+K6+N6+O6+P6</f>
         <v>5</v>
       </c>
       <c r="R6" s="58" t="s">
@@ -5161,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="0"/>
+        <f>J7+K7+N7+O7+P7</f>
         <v>4</v>
       </c>
       <c r="R7" s="58" t="s">
@@ -5224,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="0"/>
+        <f>J8+K8+N8+O8+P8</f>
         <v>4</v>
       </c>
       <c r="R8" s="58" t="s">
@@ -5238,16 +5243,16 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="63">
         <v>-0.40000000000000036</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="63">
         <v>13.031161473087819</v>
       </c>
       <c r="E9" s="5">
@@ -5287,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="0"/>
+        <f>J9+K9+N9+O9+P9</f>
         <v>4</v>
       </c>
       <c r="R9" s="58" t="s">
@@ -5350,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="0"/>
+        <f>J10+K10+N10+O10+P10</f>
         <v>3</v>
       </c>
       <c r="R10" s="58" t="s">
@@ -5413,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="0"/>
+        <f>J11+K11+N11+O11+P11</f>
         <v>4</v>
       </c>
       <c r="R11" s="58" t="s">
@@ -5476,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="0"/>
+        <f>J12+K12+N12+O12+P12</f>
         <v>4</v>
       </c>
       <c r="R12" s="58" t="s">
@@ -5539,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="0"/>
+        <f>J13+K13+N13+O13+P13</f>
         <v>4</v>
       </c>
       <c r="R13" s="58" t="s">
@@ -5602,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="0"/>
+        <f>J14+K14+N14+O14+P14</f>
         <v>4</v>
       </c>
       <c r="R14" s="58" t="s">
@@ -5665,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="0"/>
+        <f>J15+K15+N15+O15+P15</f>
         <v>5</v>
       </c>
       <c r="R15" s="58" t="s">
@@ -5679,16 +5684,16 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="63">
         <v>-3</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="63">
         <v>14.60790028247321</v>
       </c>
       <c r="E16" s="5">
@@ -5728,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="0"/>
+        <f>J16+K16+N16+O16+P16</f>
         <v>4</v>
       </c>
       <c r="R16" s="58" t="s">
@@ -5791,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="0"/>
+        <f>J17+K17+N17+O17+P17</f>
         <v>4</v>
       </c>
       <c r="R17" s="58" t="s">
@@ -5854,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="0"/>
+        <f>J18+K18+N18+O18+P18</f>
         <v>4</v>
       </c>
       <c r="R18" s="58" t="s">
@@ -5917,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="0"/>
+        <f>J19+K19+N19+O19+P19</f>
         <v>4</v>
       </c>
       <c r="R19" s="58" t="s">
@@ -5980,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="0"/>
+        <f>J20+K20+N20+O20+P20</f>
         <v>4</v>
       </c>
       <c r="R20" s="58" t="s">
@@ -5994,16 +5999,16 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="63">
         <v>-1.100000000000001</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="63">
         <v>12.272024729520865</v>
       </c>
       <c r="E21" s="5">
@@ -6043,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="0"/>
+        <f>J21+K21+N21+O21+P21</f>
         <v>4</v>
       </c>
       <c r="R21" s="58" t="s">
@@ -6106,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="0"/>
+        <f>J22+K22+N22+O22+P22</f>
         <v>4</v>
       </c>
       <c r="R22" s="58" t="s">
@@ -6169,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="0"/>
+        <f>J23+K23+N23+O23+P23</f>
         <v>4</v>
       </c>
       <c r="R23" s="58" t="s">
@@ -6232,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="0"/>
+        <f>J24+K24+N24+O24+P24</f>
         <v>4</v>
       </c>
       <c r="R24" s="58" t="s">
@@ -6295,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="0"/>
+        <f>J25+K25+N25+O25+P25</f>
         <v>3</v>
       </c>
       <c r="R25" s="58" t="s">
@@ -6358,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="0"/>
+        <f>J26+K26+N26+O26+P26</f>
         <v>3</v>
       </c>
       <c r="R26" s="58" t="s">
@@ -6367,7 +6372,7 @@
       <c r="S26" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="T26" s="58" t="s">
+      <c r="T26" s="63" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6421,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="0"/>
+        <f>J27+K27+N27+O27+P27</f>
         <v>3</v>
       </c>
       <c r="R27" s="58" t="s">
@@ -6484,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="0"/>
+        <f>J28+K28+N28+O28+P28</f>
         <v>3</v>
       </c>
       <c r="R28" s="58" t="s">
@@ -6547,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="0"/>
+        <f>J29+K29+N29+O29+P29</f>
         <v>3</v>
       </c>
       <c r="R29" s="58" t="s">
@@ -6610,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="0"/>
+        <f>J30+K30+N30+O30+P30</f>
         <v>3</v>
       </c>
       <c r="R30" s="58" t="s">
@@ -6673,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="0"/>
+        <f>J31+K31+N31+O31+P31</f>
         <v>3</v>
       </c>
       <c r="R31" s="58" t="s">
@@ -6736,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="0"/>
+        <f>J32+K32+N32+O32+P32</f>
         <v>3</v>
       </c>
       <c r="R32" s="58" t="s">
@@ -6799,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="0"/>
+        <f>J33+K33+N33+O33+P33</f>
         <v>3</v>
       </c>
       <c r="R33" s="58" t="s">
@@ -6862,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" ref="Q34:Q65" si="1">J34+K34+N34+O34+P34</f>
+        <f>J34+K34+N34+O34+P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="58" t="s">
@@ -6876,16 +6881,16 @@
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="63">
         <v>-1.4999999999999987</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="63">
         <v>3.1875658587987354</v>
       </c>
       <c r="E35" s="5">
@@ -6925,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="1"/>
+        <f>J35+K35+N35+O35+P35</f>
         <v>3</v>
       </c>
       <c r="R35" s="58" t="s">
@@ -6939,16 +6944,16 @@
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="63">
         <v>0.60000000000000053</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="63">
         <v>8.5793871866295266</v>
       </c>
       <c r="E36" s="5">
@@ -6978,7 +6983,7 @@
       <c r="M36" s="58">
         <v>0</v>
       </c>
-      <c r="N36" s="58">
+      <c r="N36" s="63">
         <v>0</v>
       </c>
       <c r="O36" s="58">
@@ -6988,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="1"/>
+        <f>J36+K36+N36+O36+P36</f>
         <v>3</v>
       </c>
       <c r="R36" s="58" t="s">
@@ -7051,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="1"/>
+        <f>J37+K37+N37+O37+P37</f>
         <v>3</v>
       </c>
       <c r="R37" s="58" t="s">
@@ -7114,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="1"/>
+        <f>J38+K38+N38+O38+P38</f>
         <v>3</v>
       </c>
       <c r="R38" s="58" t="s">
@@ -7177,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="1"/>
+        <f>J39+K39+N39+O39+P39</f>
         <v>3</v>
       </c>
       <c r="R39" s="58" t="s">
@@ -7240,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="1"/>
+        <f>J40+K40+N40+O40+P40</f>
         <v>3</v>
       </c>
       <c r="R40" s="58" t="s">
@@ -7303,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="1"/>
+        <f>J41+K41+N41+O41+P41</f>
         <v>3</v>
       </c>
       <c r="R41" s="58" t="s">
@@ -7366,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="1"/>
+        <f>J42+K42+N42+O42+P42</f>
         <v>3</v>
       </c>
       <c r="R42" s="58" t="s">
@@ -7429,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="1"/>
+        <f>J43+K43+N43+O43+P43</f>
         <v>3</v>
       </c>
       <c r="R43" s="58" t="s">
@@ -7492,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="1"/>
+        <f>J44+K44+N44+O44+P44</f>
         <v>4</v>
       </c>
       <c r="R44" s="58" t="s">
@@ -7555,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="1"/>
+        <f>J45+K45+N45+O45+P45</f>
         <v>3</v>
       </c>
       <c r="R45" s="58" t="s">
@@ -7618,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="1"/>
+        <f>J46+K46+N46+O46+P46</f>
         <v>3</v>
       </c>
       <c r="R46" s="58" t="s">
@@ -7681,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="1"/>
+        <f>J47+K47+N47+O47+P47</f>
         <v>3</v>
       </c>
       <c r="R47" s="58" t="s">
@@ -7744,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="1"/>
+        <f>J48+K48+N48+O48+P48</f>
         <v>3</v>
       </c>
       <c r="R48" s="58" t="s">
@@ -7807,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="1"/>
+        <f>J49+K49+N49+O49+P49</f>
         <v>3</v>
       </c>
       <c r="R49" s="58" t="s">
@@ -7870,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="1"/>
+        <f>J50+K50+N50+O50+P50</f>
         <v>3</v>
       </c>
       <c r="R50" s="58" t="s">
@@ -7933,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="1"/>
+        <f>J51+K51+N51+O51+P51</f>
         <v>3</v>
       </c>
       <c r="R51" s="58" t="s">
@@ -7996,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="1"/>
+        <f>J52+K52+N52+O52+P52</f>
         <v>3</v>
       </c>
       <c r="R52" s="58" t="s">
@@ -8059,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="1"/>
+        <f>J53+K53+N53+O53+P53</f>
         <v>2</v>
       </c>
       <c r="R53" s="58" t="s">
@@ -8122,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="1"/>
+        <f>J54+K54+N54+O54+P54</f>
         <v>2</v>
       </c>
       <c r="R54" s="58" t="s">
@@ -8185,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="1"/>
+        <f>J55+K55+N55+O55+P55</f>
         <v>2</v>
       </c>
       <c r="R55" s="58" t="s">
@@ -8248,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="1"/>
+        <f>J56+K56+N56+O56+P56</f>
         <v>2</v>
       </c>
       <c r="R56" s="58" t="s">
@@ -8311,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="1"/>
+        <f>J57+K57+N57+O57+P57</f>
         <v>2</v>
       </c>
       <c r="R57" s="58" t="s">
@@ -8374,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="1"/>
+        <f>J58+K58+N58+O58+P58</f>
         <v>2</v>
       </c>
       <c r="R58" s="58" t="s">
@@ -8437,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="1"/>
+        <f>J59+K59+N59+O59+P59</f>
         <v>2</v>
       </c>
       <c r="R59" s="58" t="s">
@@ -8500,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="1"/>
+        <f>J60+K60+N60+O60+P60</f>
         <v>2</v>
       </c>
       <c r="R60" s="58" t="s">
@@ -8563,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="1"/>
+        <f>J61+K61+N61+O61+P61</f>
         <v>2</v>
       </c>
       <c r="R61" s="58" t="s">
@@ -8572,7 +8577,7 @@
       <c r="S61" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="T61" s="58" t="s">
+      <c r="T61" s="63" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8626,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="1"/>
+        <f>J62+K62+N62+O62+P62</f>
         <v>2</v>
       </c>
       <c r="R62" s="58" t="s">
@@ -8689,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="1"/>
+        <f>J63+K63+N63+O63+P63</f>
         <v>2</v>
       </c>
       <c r="R63" s="58" t="s">
@@ -8703,16 +8708,16 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="58">
+      <c r="C64" s="63">
         <v>2.0000000000000004</v>
       </c>
-      <c r="D64" s="58">
+      <c r="D64" s="63">
         <v>2.9637377963737799</v>
       </c>
       <c r="E64" s="5">
@@ -8752,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="1"/>
+        <f>J64+K64+N64+O64+P64</f>
         <v>2</v>
       </c>
       <c r="R64" s="58" t="s">
@@ -8815,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="1"/>
+        <f>J65+K65+N65+O65+P65</f>
         <v>2</v>
       </c>
       <c r="R65" s="58" t="s">
@@ -8878,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" ref="Q66:Q89" si="2">J66+K66+N66+O66+P66</f>
+        <f>J66+K66+N66+O66+P66</f>
         <v>2</v>
       </c>
       <c r="R66" s="58" t="s">
@@ -8941,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="2"/>
+        <f>J67+K67+N67+O67+P67</f>
         <v>2</v>
       </c>
       <c r="R67" s="58" t="s">
@@ -9004,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="2"/>
+        <f>J68+K68+N68+O68+P68</f>
         <v>2</v>
       </c>
       <c r="R68" s="58" t="s">
@@ -9018,16 +9023,16 @@
       </c>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="58">
+      <c r="C69" s="63">
         <v>0.50000000000000044</v>
       </c>
-      <c r="D69" s="58">
+      <c r="D69" s="63">
         <v>2.0173184889142637</v>
       </c>
       <c r="E69" s="5">
@@ -9067,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="2"/>
+        <f>J69+K69+N69+O69+P69</f>
         <v>2</v>
       </c>
       <c r="R69" s="58" t="s">
@@ -9130,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="2"/>
+        <f>J70+K70+N70+O70+P70</f>
         <v>2</v>
       </c>
       <c r="R70" s="58" t="s">
@@ -9193,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="2"/>
+        <f>J71+K71+N71+O71+P71</f>
         <v>2</v>
       </c>
       <c r="R71" s="58" t="s">
@@ -9256,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="2"/>
+        <f>J72+K72+N72+O72+P72</f>
         <v>2</v>
       </c>
       <c r="R72" s="58" t="s">
@@ -9319,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="2"/>
+        <f>J73+K73+N73+O73+P73</f>
         <v>2</v>
       </c>
       <c r="R73" s="58" t="s">
@@ -9328,7 +9333,7 @@
       <c r="S73" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="T73" s="58" t="s">
+      <c r="T73" s="63" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9382,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="2"/>
+        <f>J74+K74+N74+O74+P74</f>
         <v>1</v>
       </c>
       <c r="R74" s="58" t="s">
@@ -9445,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" si="2"/>
+        <f>J75+K75+N75+O75+P75</f>
         <v>2</v>
       </c>
       <c r="R75" s="58" t="s">
@@ -9508,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="2"/>
+        <f>J76+K76+N76+O76+P76</f>
         <v>1</v>
       </c>
       <c r="R76" s="58" t="s">
@@ -9571,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="5">
-        <f t="shared" si="2"/>
+        <f>J77+K77+N77+O77+P77</f>
         <v>1</v>
       </c>
       <c r="R77" s="58" t="s">
@@ -9634,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="2"/>
+        <f>J78+K78+N78+O78+P78</f>
         <v>1</v>
       </c>
       <c r="R78" s="58" t="s">
@@ -9697,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="2"/>
+        <f>J79+K79+N79+O79+P79</f>
         <v>1</v>
       </c>
       <c r="R79" s="58" t="s">
@@ -9760,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="2"/>
+        <f>J80+K80+N80+O80+P80</f>
         <v>1</v>
       </c>
       <c r="R80" s="58" t="s">
@@ -9867,7 +9872,7 @@
       <c r="J82" s="30">
         <v>0</v>
       </c>
-      <c r="K82" s="58">
+      <c r="K82" s="63">
         <v>1</v>
       </c>
       <c r="L82" s="58">
@@ -9949,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="2"/>
+        <f>J83+K83+N83+O83+P83</f>
         <v>1</v>
       </c>
       <c r="R83" s="58" t="s">
@@ -10012,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="2"/>
+        <f>J84+K84+N84+O84+P84</f>
         <v>1</v>
       </c>
       <c r="R84" s="58" t="s">
@@ -10075,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="2"/>
+        <f>J85+K85+N85+O85+P85</f>
         <v>1</v>
       </c>
       <c r="R85" s="58" t="s">
@@ -10138,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="2"/>
+        <f>J86+K86+N86+O86+P86</f>
         <v>1</v>
       </c>
       <c r="R86" s="58" t="s">
@@ -10201,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="2"/>
+        <f>J87+K87+N87+O87+P87</f>
         <v>1</v>
       </c>
       <c r="R87" s="58" t="s">
@@ -10264,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="2"/>
+        <f>J88+K88+N88+O88+P88</f>
         <v>2</v>
       </c>
       <c r="R88" s="58" t="s">
@@ -10327,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="2"/>
+        <f>J89+K89+N89+O89+P89</f>
         <v>0</v>
       </c>
       <c r="R89" s="58" t="s">
@@ -64607,279 +64612,279 @@
       </c>
     </row>
     <row r="266" spans="1:52" hidden="1">
-      <c r="A266" s="63" t="s">
+      <c r="A266" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="64"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="64"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="64"/>
-      <c r="I266" s="64"/>
-      <c r="J266" s="64"/>
-      <c r="K266" s="64"/>
-      <c r="L266" s="64"/>
-      <c r="M266" s="64"/>
-      <c r="N266" s="64"/>
-      <c r="O266" s="64"/>
-      <c r="P266" s="64"/>
-      <c r="Q266" s="64"/>
-      <c r="R266" s="64"/>
-      <c r="S266" s="64"/>
-      <c r="T266" s="64"/>
-      <c r="U266" s="64"/>
-      <c r="V266" s="64"/>
-      <c r="W266" s="64"/>
-      <c r="X266" s="64"/>
-      <c r="Y266" s="64"/>
-      <c r="Z266" s="64"/>
-      <c r="AA266" s="64"/>
-      <c r="AB266" s="64"/>
-      <c r="AC266" s="64"/>
-      <c r="AD266" s="64"/>
-      <c r="AE266" s="64"/>
-      <c r="AF266" s="64"/>
-      <c r="AG266" s="64"/>
-      <c r="AH266" s="64"/>
-      <c r="AI266" s="64"/>
-      <c r="AJ266" s="64"/>
-      <c r="AK266" s="64"/>
-      <c r="AL266" s="64"/>
-      <c r="AM266" s="64"/>
-      <c r="AN266" s="64"/>
-      <c r="AO266" s="64"/>
-      <c r="AP266" s="64"/>
-      <c r="AQ266" s="64"/>
-      <c r="AR266" s="64"/>
-      <c r="AS266" s="64"/>
-      <c r="AT266" s="64"/>
-      <c r="AU266" s="64"/>
-      <c r="AV266" s="64"/>
-      <c r="AW266" s="64"/>
-      <c r="AX266" s="64"/>
-      <c r="AY266" s="64"/>
+      <c r="B266" s="65"/>
+      <c r="C266" s="65"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="65"/>
+      <c r="F266" s="65"/>
+      <c r="G266" s="65"/>
+      <c r="H266" s="65"/>
+      <c r="I266" s="65"/>
+      <c r="J266" s="65"/>
+      <c r="K266" s="65"/>
+      <c r="L266" s="65"/>
+      <c r="M266" s="65"/>
+      <c r="N266" s="65"/>
+      <c r="O266" s="65"/>
+      <c r="P266" s="65"/>
+      <c r="Q266" s="65"/>
+      <c r="R266" s="65"/>
+      <c r="S266" s="65"/>
+      <c r="T266" s="65"/>
+      <c r="U266" s="65"/>
+      <c r="V266" s="65"/>
+      <c r="W266" s="65"/>
+      <c r="X266" s="65"/>
+      <c r="Y266" s="65"/>
+      <c r="Z266" s="65"/>
+      <c r="AA266" s="65"/>
+      <c r="AB266" s="65"/>
+      <c r="AC266" s="65"/>
+      <c r="AD266" s="65"/>
+      <c r="AE266" s="65"/>
+      <c r="AF266" s="65"/>
+      <c r="AG266" s="65"/>
+      <c r="AH266" s="65"/>
+      <c r="AI266" s="65"/>
+      <c r="AJ266" s="65"/>
+      <c r="AK266" s="65"/>
+      <c r="AL266" s="65"/>
+      <c r="AM266" s="65"/>
+      <c r="AN266" s="65"/>
+      <c r="AO266" s="65"/>
+      <c r="AP266" s="65"/>
+      <c r="AQ266" s="65"/>
+      <c r="AR266" s="65"/>
+      <c r="AS266" s="65"/>
+      <c r="AT266" s="65"/>
+      <c r="AU266" s="65"/>
+      <c r="AV266" s="65"/>
+      <c r="AW266" s="65"/>
+      <c r="AX266" s="65"/>
+      <c r="AY266" s="65"/>
     </row>
     <row r="267" spans="1:52" hidden="1">
-      <c r="A267" s="65" t="s">
+      <c r="A267" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="B267" s="64"/>
-      <c r="C267" s="64"/>
-      <c r="D267" s="64"/>
-      <c r="E267" s="64"/>
-      <c r="F267" s="64"/>
-      <c r="G267" s="64"/>
-      <c r="H267" s="64"/>
-      <c r="I267" s="64"/>
-      <c r="J267" s="64"/>
-      <c r="K267" s="64"/>
-      <c r="L267" s="64"/>
-      <c r="M267" s="64"/>
-      <c r="N267" s="64"/>
-      <c r="O267" s="64"/>
-      <c r="P267" s="64"/>
-      <c r="Q267" s="64"/>
-      <c r="R267" s="64"/>
-      <c r="S267" s="64"/>
-      <c r="T267" s="64"/>
-      <c r="U267" s="64"/>
-      <c r="V267" s="64"/>
-      <c r="W267" s="64"/>
-      <c r="X267" s="64"/>
-      <c r="Y267" s="64"/>
-      <c r="Z267" s="64"/>
-      <c r="AA267" s="64"/>
-      <c r="AB267" s="64"/>
-      <c r="AC267" s="64"/>
-      <c r="AD267" s="64"/>
-      <c r="AE267" s="64"/>
-      <c r="AF267" s="64"/>
-      <c r="AG267" s="64"/>
-      <c r="AH267" s="64"/>
-      <c r="AI267" s="64"/>
-      <c r="AJ267" s="64"/>
-      <c r="AK267" s="64"/>
-      <c r="AL267" s="64"/>
-      <c r="AM267" s="64"/>
-      <c r="AN267" s="64"/>
-      <c r="AO267" s="64"/>
-      <c r="AP267" s="64"/>
-      <c r="AQ267" s="64"/>
-      <c r="AR267" s="64"/>
-      <c r="AS267" s="64"/>
-      <c r="AT267" s="64"/>
-      <c r="AU267" s="64"/>
-      <c r="AV267" s="64"/>
-      <c r="AW267" s="64"/>
-      <c r="AX267" s="64"/>
-      <c r="AY267" s="64"/>
+      <c r="B267" s="65"/>
+      <c r="C267" s="65"/>
+      <c r="D267" s="65"/>
+      <c r="E267" s="65"/>
+      <c r="F267" s="65"/>
+      <c r="G267" s="65"/>
+      <c r="H267" s="65"/>
+      <c r="I267" s="65"/>
+      <c r="J267" s="65"/>
+      <c r="K267" s="65"/>
+      <c r="L267" s="65"/>
+      <c r="M267" s="65"/>
+      <c r="N267" s="65"/>
+      <c r="O267" s="65"/>
+      <c r="P267" s="65"/>
+      <c r="Q267" s="65"/>
+      <c r="R267" s="65"/>
+      <c r="S267" s="65"/>
+      <c r="T267" s="65"/>
+      <c r="U267" s="65"/>
+      <c r="V267" s="65"/>
+      <c r="W267" s="65"/>
+      <c r="X267" s="65"/>
+      <c r="Y267" s="65"/>
+      <c r="Z267" s="65"/>
+      <c r="AA267" s="65"/>
+      <c r="AB267" s="65"/>
+      <c r="AC267" s="65"/>
+      <c r="AD267" s="65"/>
+      <c r="AE267" s="65"/>
+      <c r="AF267" s="65"/>
+      <c r="AG267" s="65"/>
+      <c r="AH267" s="65"/>
+      <c r="AI267" s="65"/>
+      <c r="AJ267" s="65"/>
+      <c r="AK267" s="65"/>
+      <c r="AL267" s="65"/>
+      <c r="AM267" s="65"/>
+      <c r="AN267" s="65"/>
+      <c r="AO267" s="65"/>
+      <c r="AP267" s="65"/>
+      <c r="AQ267" s="65"/>
+      <c r="AR267" s="65"/>
+      <c r="AS267" s="65"/>
+      <c r="AT267" s="65"/>
+      <c r="AU267" s="65"/>
+      <c r="AV267" s="65"/>
+      <c r="AW267" s="65"/>
+      <c r="AX267" s="65"/>
+      <c r="AY267" s="65"/>
     </row>
     <row r="268" spans="1:52" hidden="1">
-      <c r="A268" s="65" t="s">
+      <c r="A268" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="B268" s="64"/>
-      <c r="C268" s="64"/>
-      <c r="D268" s="64"/>
-      <c r="E268" s="64"/>
-      <c r="F268" s="64"/>
-      <c r="G268" s="64"/>
-      <c r="H268" s="64"/>
-      <c r="I268" s="64"/>
-      <c r="J268" s="64"/>
-      <c r="K268" s="64"/>
-      <c r="L268" s="64"/>
-      <c r="M268" s="64"/>
-      <c r="N268" s="64"/>
-      <c r="O268" s="64"/>
-      <c r="P268" s="64"/>
-      <c r="Q268" s="64"/>
-      <c r="R268" s="64"/>
-      <c r="S268" s="64"/>
-      <c r="T268" s="64"/>
-      <c r="U268" s="64"/>
-      <c r="V268" s="64"/>
-      <c r="W268" s="64"/>
-      <c r="X268" s="64"/>
-      <c r="Y268" s="64"/>
-      <c r="Z268" s="64"/>
-      <c r="AA268" s="64"/>
-      <c r="AB268" s="64"/>
-      <c r="AC268" s="64"/>
-      <c r="AD268" s="64"/>
-      <c r="AE268" s="64"/>
-      <c r="AF268" s="64"/>
-      <c r="AG268" s="64"/>
-      <c r="AH268" s="64"/>
-      <c r="AI268" s="64"/>
-      <c r="AJ268" s="64"/>
-      <c r="AK268" s="64"/>
-      <c r="AL268" s="64"/>
-      <c r="AM268" s="64"/>
-      <c r="AN268" s="64"/>
-      <c r="AO268" s="64"/>
-      <c r="AP268" s="64"/>
-      <c r="AQ268" s="64"/>
-      <c r="AR268" s="64"/>
-      <c r="AS268" s="64"/>
-      <c r="AT268" s="64"/>
-      <c r="AU268" s="64"/>
-      <c r="AV268" s="64"/>
-      <c r="AW268" s="64"/>
-      <c r="AX268" s="64"/>
-      <c r="AY268" s="64"/>
+      <c r="B268" s="65"/>
+      <c r="C268" s="65"/>
+      <c r="D268" s="65"/>
+      <c r="E268" s="65"/>
+      <c r="F268" s="65"/>
+      <c r="G268" s="65"/>
+      <c r="H268" s="65"/>
+      <c r="I268" s="65"/>
+      <c r="J268" s="65"/>
+      <c r="K268" s="65"/>
+      <c r="L268" s="65"/>
+      <c r="M268" s="65"/>
+      <c r="N268" s="65"/>
+      <c r="O268" s="65"/>
+      <c r="P268" s="65"/>
+      <c r="Q268" s="65"/>
+      <c r="R268" s="65"/>
+      <c r="S268" s="65"/>
+      <c r="T268" s="65"/>
+      <c r="U268" s="65"/>
+      <c r="V268" s="65"/>
+      <c r="W268" s="65"/>
+      <c r="X268" s="65"/>
+      <c r="Y268" s="65"/>
+      <c r="Z268" s="65"/>
+      <c r="AA268" s="65"/>
+      <c r="AB268" s="65"/>
+      <c r="AC268" s="65"/>
+      <c r="AD268" s="65"/>
+      <c r="AE268" s="65"/>
+      <c r="AF268" s="65"/>
+      <c r="AG268" s="65"/>
+      <c r="AH268" s="65"/>
+      <c r="AI268" s="65"/>
+      <c r="AJ268" s="65"/>
+      <c r="AK268" s="65"/>
+      <c r="AL268" s="65"/>
+      <c r="AM268" s="65"/>
+      <c r="AN268" s="65"/>
+      <c r="AO268" s="65"/>
+      <c r="AP268" s="65"/>
+      <c r="AQ268" s="65"/>
+      <c r="AR268" s="65"/>
+      <c r="AS268" s="65"/>
+      <c r="AT268" s="65"/>
+      <c r="AU268" s="65"/>
+      <c r="AV268" s="65"/>
+      <c r="AW268" s="65"/>
+      <c r="AX268" s="65"/>
+      <c r="AY268" s="65"/>
     </row>
     <row r="269" spans="1:52" hidden="1">
-      <c r="A269" s="65" t="s">
+      <c r="A269" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B269" s="64"/>
-      <c r="C269" s="64"/>
-      <c r="D269" s="64"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="64"/>
-      <c r="G269" s="64"/>
-      <c r="H269" s="64"/>
-      <c r="I269" s="64"/>
-      <c r="J269" s="64"/>
-      <c r="K269" s="64"/>
-      <c r="L269" s="64"/>
-      <c r="M269" s="64"/>
-      <c r="N269" s="64"/>
-      <c r="O269" s="64"/>
-      <c r="P269" s="64"/>
-      <c r="Q269" s="64"/>
-      <c r="R269" s="64"/>
-      <c r="S269" s="64"/>
-      <c r="T269" s="64"/>
-      <c r="U269" s="64"/>
-      <c r="V269" s="64"/>
-      <c r="W269" s="64"/>
-      <c r="X269" s="64"/>
-      <c r="Y269" s="64"/>
-      <c r="Z269" s="64"/>
-      <c r="AA269" s="64"/>
-      <c r="AB269" s="64"/>
-      <c r="AC269" s="64"/>
-      <c r="AD269" s="64"/>
-      <c r="AE269" s="64"/>
-      <c r="AF269" s="64"/>
-      <c r="AG269" s="64"/>
-      <c r="AH269" s="64"/>
-      <c r="AI269" s="64"/>
-      <c r="AJ269" s="64"/>
-      <c r="AK269" s="64"/>
-      <c r="AL269" s="64"/>
-      <c r="AM269" s="64"/>
-      <c r="AN269" s="64"/>
-      <c r="AO269" s="64"/>
-      <c r="AP269" s="64"/>
-      <c r="AQ269" s="64"/>
-      <c r="AR269" s="64"/>
-      <c r="AS269" s="64"/>
-      <c r="AT269" s="64"/>
-      <c r="AU269" s="64"/>
-      <c r="AV269" s="64"/>
-      <c r="AW269" s="64"/>
-      <c r="AX269" s="64"/>
-      <c r="AY269" s="64"/>
+      <c r="B269" s="65"/>
+      <c r="C269" s="65"/>
+      <c r="D269" s="65"/>
+      <c r="E269" s="65"/>
+      <c r="F269" s="65"/>
+      <c r="G269" s="65"/>
+      <c r="H269" s="65"/>
+      <c r="I269" s="65"/>
+      <c r="J269" s="65"/>
+      <c r="K269" s="65"/>
+      <c r="L269" s="65"/>
+      <c r="M269" s="65"/>
+      <c r="N269" s="65"/>
+      <c r="O269" s="65"/>
+      <c r="P269" s="65"/>
+      <c r="Q269" s="65"/>
+      <c r="R269" s="65"/>
+      <c r="S269" s="65"/>
+      <c r="T269" s="65"/>
+      <c r="U269" s="65"/>
+      <c r="V269" s="65"/>
+      <c r="W269" s="65"/>
+      <c r="X269" s="65"/>
+      <c r="Y269" s="65"/>
+      <c r="Z269" s="65"/>
+      <c r="AA269" s="65"/>
+      <c r="AB269" s="65"/>
+      <c r="AC269" s="65"/>
+      <c r="AD269" s="65"/>
+      <c r="AE269" s="65"/>
+      <c r="AF269" s="65"/>
+      <c r="AG269" s="65"/>
+      <c r="AH269" s="65"/>
+      <c r="AI269" s="65"/>
+      <c r="AJ269" s="65"/>
+      <c r="AK269" s="65"/>
+      <c r="AL269" s="65"/>
+      <c r="AM269" s="65"/>
+      <c r="AN269" s="65"/>
+      <c r="AO269" s="65"/>
+      <c r="AP269" s="65"/>
+      <c r="AQ269" s="65"/>
+      <c r="AR269" s="65"/>
+      <c r="AS269" s="65"/>
+      <c r="AT269" s="65"/>
+      <c r="AU269" s="65"/>
+      <c r="AV269" s="65"/>
+      <c r="AW269" s="65"/>
+      <c r="AX269" s="65"/>
+      <c r="AY269" s="65"/>
     </row>
     <row r="270" spans="1:52" hidden="1">
-      <c r="A270" s="65" t="s">
+      <c r="A270" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B270" s="64"/>
-      <c r="C270" s="64"/>
-      <c r="D270" s="64"/>
-      <c r="E270" s="64"/>
-      <c r="F270" s="64"/>
-      <c r="G270" s="64"/>
-      <c r="H270" s="64"/>
-      <c r="I270" s="64"/>
-      <c r="J270" s="64"/>
-      <c r="K270" s="64"/>
-      <c r="L270" s="64"/>
-      <c r="M270" s="64"/>
-      <c r="N270" s="64"/>
-      <c r="O270" s="64"/>
-      <c r="P270" s="64"/>
-      <c r="Q270" s="64"/>
-      <c r="R270" s="64"/>
-      <c r="S270" s="64"/>
-      <c r="T270" s="64"/>
-      <c r="U270" s="64"/>
-      <c r="V270" s="64"/>
-      <c r="W270" s="64"/>
-      <c r="X270" s="64"/>
-      <c r="Y270" s="64"/>
-      <c r="Z270" s="64"/>
-      <c r="AA270" s="64"/>
-      <c r="AB270" s="64"/>
-      <c r="AC270" s="64"/>
-      <c r="AD270" s="64"/>
-      <c r="AE270" s="64"/>
-      <c r="AF270" s="64"/>
-      <c r="AG270" s="64"/>
-      <c r="AH270" s="64"/>
-      <c r="AI270" s="64"/>
-      <c r="AJ270" s="64"/>
-      <c r="AK270" s="64"/>
-      <c r="AL270" s="64"/>
-      <c r="AM270" s="64"/>
-      <c r="AN270" s="64"/>
-      <c r="AO270" s="64"/>
-      <c r="AP270" s="64"/>
-      <c r="AQ270" s="64"/>
-      <c r="AR270" s="64"/>
-      <c r="AS270" s="64"/>
-      <c r="AT270" s="64"/>
-      <c r="AU270" s="64"/>
-      <c r="AV270" s="64"/>
-      <c r="AW270" s="64"/>
-      <c r="AX270" s="64"/>
-      <c r="AY270" s="64"/>
+      <c r="B270" s="65"/>
+      <c r="C270" s="65"/>
+      <c r="D270" s="65"/>
+      <c r="E270" s="65"/>
+      <c r="F270" s="65"/>
+      <c r="G270" s="65"/>
+      <c r="H270" s="65"/>
+      <c r="I270" s="65"/>
+      <c r="J270" s="65"/>
+      <c r="K270" s="65"/>
+      <c r="L270" s="65"/>
+      <c r="M270" s="65"/>
+      <c r="N270" s="65"/>
+      <c r="O270" s="65"/>
+      <c r="P270" s="65"/>
+      <c r="Q270" s="65"/>
+      <c r="R270" s="65"/>
+      <c r="S270" s="65"/>
+      <c r="T270" s="65"/>
+      <c r="U270" s="65"/>
+      <c r="V270" s="65"/>
+      <c r="W270" s="65"/>
+      <c r="X270" s="65"/>
+      <c r="Y270" s="65"/>
+      <c r="Z270" s="65"/>
+      <c r="AA270" s="65"/>
+      <c r="AB270" s="65"/>
+      <c r="AC270" s="65"/>
+      <c r="AD270" s="65"/>
+      <c r="AE270" s="65"/>
+      <c r="AF270" s="65"/>
+      <c r="AG270" s="65"/>
+      <c r="AH270" s="65"/>
+      <c r="AI270" s="65"/>
+      <c r="AJ270" s="65"/>
+      <c r="AK270" s="65"/>
+      <c r="AL270" s="65"/>
+      <c r="AM270" s="65"/>
+      <c r="AN270" s="65"/>
+      <c r="AO270" s="65"/>
+      <c r="AP270" s="65"/>
+      <c r="AQ270" s="65"/>
+      <c r="AR270" s="65"/>
+      <c r="AS270" s="65"/>
+      <c r="AT270" s="65"/>
+      <c r="AU270" s="65"/>
+      <c r="AV270" s="65"/>
+      <c r="AW270" s="65"/>
+      <c r="AX270" s="65"/>
+      <c r="AY270" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AY270">
